--- a/rhla_analysis/rhla1_6_normal_result/k1.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009566370213951183</v>
+        <v>0.009566370213951129</v>
       </c>
       <c r="B2" t="n">
         <v>0.2004988012505546</v>
@@ -466,12 +466,12 @@
         <v>0.09402579769178547</v>
       </c>
       <c r="D2" t="n">
-        <v>20.95871231892696</v>
+        <v>20.95871231892708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02254715443942005</v>
+        <v>0.02254715443941997</v>
       </c>
       <c r="B3" t="n">
         <v>0.2448144456136453</v>
@@ -480,12 +480,12 @@
         <v>0.08282416836388323</v>
       </c>
       <c r="D3" t="n">
-        <v>10.85788658038492</v>
+        <v>10.85788658038496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01054060921359045</v>
+        <v>0.01054060921359043</v>
       </c>
       <c r="B4" t="n">
         <v>0.1928360174444718</v>
@@ -494,26 +494,26 @@
         <v>0.08893414799728445</v>
       </c>
       <c r="D4" t="n">
-        <v>18.29457989921875</v>
+        <v>18.29457989921879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01351345271881251</v>
+        <v>0.01351345271881253</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2232846864175723</v>
+        <v>0.2232846864175722</v>
       </c>
       <c r="C5" t="n">
         <v>0.09402579769178547</v>
       </c>
       <c r="D5" t="n">
-        <v>16.52314112933777</v>
+        <v>16.52314112933774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.005790931128904372</v>
+        <v>0.005790931128904374</v>
       </c>
       <c r="B6" t="n">
         <v>0.184048878538785</v>
@@ -522,12 +522,12 @@
         <v>0.07942973523421588</v>
       </c>
       <c r="D6" t="n">
-        <v>31.78225995818508</v>
+        <v>31.78225995818507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.008396695559848075</v>
+        <v>0.008396695559848049</v>
       </c>
       <c r="B7" t="n">
         <v>0.2132071701234872</v>
@@ -536,12 +536,12 @@
         <v>0.0943652410047522</v>
       </c>
       <c r="D7" t="n">
-        <v>25.3917947368506</v>
+        <v>25.39179473685068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01586991876797708</v>
+        <v>0.01586991876797716</v>
       </c>
       <c r="B8" t="n">
         <v>0.2625900309126167</v>
@@ -550,12 +550,12 @@
         <v>0.09300746775288526</v>
       </c>
       <c r="D8" t="n">
-        <v>16.54640044172631</v>
+        <v>16.54640044172623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03006198848906692</v>
+        <v>0.03006198848906715</v>
       </c>
       <c r="B9" t="n">
         <v>0.2042525747041852</v>
@@ -564,12 +564,12 @@
         <v>0.09606245756958588</v>
       </c>
       <c r="D9" t="n">
-        <v>6.794380045034901</v>
+        <v>6.794380045034851</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03211999501185057</v>
+        <v>0.03211999501185059</v>
       </c>
       <c r="B10" t="n">
         <v>0.1983469894952837</v>
@@ -578,12 +578,12 @@
         <v>0.0814663951120163</v>
       </c>
       <c r="D10" t="n">
-        <v>6.175187431445869</v>
+        <v>6.175187431445867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01768781154502607</v>
+        <v>0.01768781154502613</v>
       </c>
       <c r="B11" t="n">
         <v>0.1941936819186336</v>
@@ -592,7 +592,7 @@
         <v>0.08316361167684996</v>
       </c>
       <c r="D11" t="n">
-        <v>10.9789547126446</v>
+        <v>10.97895471264457</v>
       </c>
     </row>
   </sheetData>
